--- a/medicine/Pharmacie/Siméticone/Siméticone.xlsx
+++ b/medicine/Pharmacie/Siméticone/Siméticone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sim%C3%A9ticone</t>
+          <t>Siméticone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La siméticone (noms commerciaux Imonogas,  Elugan, Endo-Paractol, Espumisan, Imogas, Lefax, Flatulex , etc.) est une silicone utilisée dans les pansements gastriques favorisant l'évacuation des gaz intestinaux.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sim%C3%A9ticone</t>
+          <t>Siméticone</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Variant</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce médicament est commercialisé aussi sous le nom de Météoxane (e.g. par Alfa Wassermann Pharma) en combinaison avec phloroglucinol hydraté (Viz. Notice dans l'emballage de médicament).
 Ce médicament existe aussi sous le nom de Météospasmyl en association avec du citrate d'alvérine (un anti-spasmodique)
